--- a/example_data/Summary/during/Averages by Sample/Avg Zscore_during_.xlsx
+++ b/example_data/Summary/during/Averages by Sample/Avg Zscore_during_.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,40 +498,50 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Animal ID_Event 8</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Event 8</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Animal ID_Event 9</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Event 9</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 1</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Group 1</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 2</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Group 2</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 3</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Group 3</t>
         </is>
@@ -540,217 +550,709 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9546164256157866</v>
+        <v>-8.847226700572849</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.6544649630019824</v>
+        <v>-1.303272459921286</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.681022594758727</v>
+        <v>0.6655626641182514</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1.800210814374347</v>
+        <v>7.929822014574073</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>24.33961339426704</v>
+        <v>7.647335961179428</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>-0.6492639845748827</v>
+        <v>0.9962443587066305</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>-0.8531896987912773</v>
+        <v>0.1191830188318104</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>-0.6492639845748827</v>
+        <v>2.733063790962512</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>-0.6492639845748827</v>
+        <v>5.392945151506138</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>0.9546164256157866</v>
+        <v>1.58696880344296</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v>-6.816189574492064</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2031472455286884</v>
+        <v>0.4288937486635571</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3.068560637080823</v>
+        <v>1.126976491609016</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.632921728449392</v>
+        <v>5.427616545773</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1.181768638278224</v>
+        <v>2.362472520659799</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>-2.060594971653193</v>
+        <v>29.78224344084158</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>23</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.643809415923121</v>
+        <v>2.715096005988916</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2.643809415923121</v>
+        <v>1.970627569580433</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.643809415923121</v>
+        <v>1.448589954964897</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>210</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>-0.1653087614875761</v>
+        <v>6.42010790180774</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v>0.4288937486635571</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8472824401455719</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>382</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>-3.04849765073856</v>
+        <v>3.968076273395631</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2.198857133802358</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>-3.724973638111437</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>-1.143507013049039</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1.209516061997112</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>211</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>-0.6402249392387558</v>
+        <v>-1.951812698070988</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>211</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.19008153113528</v>
+        <v>-3.548176177196069</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>211</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>1.985961630170042</v>
+        <v>-3.018960878374467</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v>3.968076273395631</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2.11106542911905</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>4.352171999383001</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.4102563834810317</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1.516811863304189</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>1.290262622993441</v>
+      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1.074653500707855</v>
+        <v>-2.934664071244135</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3.632921728449392</v>
+        <v>0.1229276033019336</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>-1.334992971054949</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v>1.623387679572701</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6448697980625474</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>-4.192233103509759</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>-1.403098889984803</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.2329830556972097</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>3.797402933161974</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>-1.715357863912264</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>-0.979242724257675</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>-1.662952338763146</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v>0.9646940640312499</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-1.753303271720474</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.4648123949783236</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>4.884735996472862</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7.909724958827616</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>11.55823001570356</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>-2.172884883241937</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>4.796088559874958</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>4.884735996472862</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="V7" t="n">
+        <v>1.684759006958479</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.2291297611961705</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>-4.285593174341492</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0.7986221600915521</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>6.804854876393072</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>1.024297487969096</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>-2.401490187005139</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>-4.285593174341492</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
+        <v>-3.081016740045952</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.249421222232229</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>-2.301101389034055</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6.501778915669592</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>7.053185487916608</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.4833390732913239</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>-2.777317844815689</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
+        <v>2.249421222232229</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7950323606163113</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>-4.840829480765457</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5.734377426049911</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>3.401626177950668</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>1.768255253464584</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>-0.7276705127456382</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v>0.7950323606163113</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-2.052087008093959</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>11.81191785998326</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8.798855008058553</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>6.095309978020752</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>6.935057324692101</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>11.81191785998326</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="V11" t="n">
+        <v>-8.443462404272072</v>
       </c>
     </row>
   </sheetData>
@@ -764,7 +1266,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -835,40 +1337,50 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Animal ID_Event 8</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Event 8</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Animal ID_Event 9</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Event 9</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 1</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Group 1</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 2</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Group 2</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 3</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Group 3</t>
         </is>
@@ -877,217 +1389,709 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9546164256157867</v>
+        <v>-8.847226700572845</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.6544649630019822</v>
+        <v>-1.303272459921286</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.681022594758728</v>
+        <v>0.6655626641182513</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1.800210814374348</v>
+        <v>7.929822014574069</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>24.33961339426704</v>
+        <v>7.647335961179428</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>-0.6492639845748827</v>
+        <v>0.9962443587066306</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>-0.8531896987912774</v>
+        <v>0.1191830188318105</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>-0.6492639845748827</v>
+        <v>2.733063790962512</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>-0.6492639845748827</v>
+        <v>5.392945151506141</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>0.9546164256157867</v>
+        <v>1.586968803442959</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v>-6.816189574492061</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2031472455286886</v>
+        <v>0.4288937486635571</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3.068560637080825</v>
+        <v>1.126976491609016</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.632921728449391</v>
+        <v>5.427616545773</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1.181768638278223</v>
+        <v>2.362472520659799</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>-2.060594971653192</v>
+        <v>29.78224344084158</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>23</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.64380941592312</v>
+        <v>2.715096005988915</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2.64380941592312</v>
+        <v>1.970627569580435</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.64380941592312</v>
+        <v>1.448589954964898</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>210</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>-0.165308761487576</v>
+        <v>6.420107901807741</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v>0.4288937486635571</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8472824401455719</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>382</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>-3.048497650738561</v>
+        <v>3.968076273395635</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2.198857133802359</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>-3.724973638111437</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>-1.143507013049036</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1.209516061997112</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>211</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>-0.6402249392387553</v>
+        <v>-1.951812698070989</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>211</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.19008153113528</v>
+        <v>-3.548176177196069</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>211</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>1.985961630170043</v>
+        <v>-3.018960878374467</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v>3.968076273395635</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2.11106542911905</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>4.352171999383</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.4102563834810318</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1.516811863304191</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>1.290262622993441</v>
+      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1.074653500707854</v>
+        <v>-2.934664071244137</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3.632921728449391</v>
+        <v>0.122927603301935</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>-1.334992971054949</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v>1.623387679572702</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6448697980625473</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>-4.19223310350976</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>-1.403098889984803</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.2329830556972096</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>3.797402933161973</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>-1.715357863912264</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>-0.9792427242576751</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>-1.662952338763146</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v>0.9646940640312497</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-1.753303271720474</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.4648123949783234</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>4.884735996472862</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7.909724958827613</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>11.55823001570356</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>-2.172884883241936</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>4.796088559874961</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>4.884735996472862</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="V7" t="n">
+        <v>1.684759006958479</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.229129761196171</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>-4.285593174341493</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0.7986221600915521</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>6.804854876393074</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>1.024297487969095</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>-2.401490187005138</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>-4.285593174341493</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
+        <v>-3.081016740045948</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.249421222232229</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>-2.301101389034055</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6.501778915669605</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>7.053185487916609</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.4833390732913236</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>-2.777317844815689</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
+        <v>2.249421222232229</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7950323606163114</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>-4.840829480765454</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5.734377426049913</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>3.401626177950667</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>1.768255253464584</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>-0.7276705127456379</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v>0.7950323606163114</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-2.052087008093957</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>11.81191785998326</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8.798855008058554</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>6.095309978020752</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>6.935057324692102</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>11.81191785998326</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="V11" t="n">
+        <v>-8.443462404272077</v>
       </c>
     </row>
   </sheetData>
@@ -1101,7 +2105,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1172,40 +2176,50 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Animal ID_Event 8</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Event 8</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Animal ID_Event 9</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Event 9</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 1</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Group 1</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 2</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Group 2</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 3</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Group 3</t>
         </is>
@@ -1214,246 +2228,758 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9546164256157864</v>
+        <v>-8.84722670057284</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.6544649630019821</v>
+        <v>-1.303272459921286</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.681022594758729</v>
+        <v>0.6655626641182509</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1.800210814374348</v>
+        <v>7.929822014574072</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>24.33961339426704</v>
+        <v>7.647335961179429</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>-0.6492639845748828</v>
+        <v>0.9962443587066306</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>-0.8531896987912772</v>
+        <v>0.1191830188318105</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>-0.6492639845748828</v>
+        <v>2.733063790962512</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>-0.6492639845748828</v>
+        <v>5.392945151506139</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>0.9546164256157864</v>
+        <v>1.58696880344296</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v>-6.816189574492062</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2031472455286886</v>
+        <v>0.4288937486635572</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3.068560637080826</v>
+        <v>1.126976491609015</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.632921728449392</v>
+        <v>5.427616545773001</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1.181768638278223</v>
+        <v>2.362472520659799</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>-2.060594971653193</v>
+        <v>29.78224344084158</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>23</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.64380941592312</v>
+        <v>2.715096005988915</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2.64380941592312</v>
+        <v>1.970627569580433</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.64380941592312</v>
+        <v>1.448589954964898</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>210</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>-0.1653087614875759</v>
+        <v>6.420107901807743</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v>0.4288937486635572</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8472824401455719</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>382</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>-3.048497650738561</v>
-      </c>
+        <v>3.968076273395631</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2.198857133802359</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>-3.724973638111437</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>-1.143507013049037</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1.209516061997111</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>211</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>-0.6402249392387555</v>
+        <v>-1.951812698070988</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>211</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.19008153113528</v>
+        <v>-3.548176177196074</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>211</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>1.985961630170042</v>
+        <v>-3.018960878374466</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v>3.968076273395631</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2.11106542911905</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>4.352171999383001</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.4102563834810316</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1.516811863304189</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>1.290262622993441</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1.074653500707855</v>
+        <v>-2.934664071244135</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3.632921728449392</v>
-      </c>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
+        <v>0.1229276033019336</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>-1.334992971054949</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v>1.623387679572701</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6448697980625474</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>-4.192233103509761</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>-1.403098889984803</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.2329830556972099</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>3.797402933161975</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>-1.715357863912264</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>-0.9792427242576748</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>-1.662952338763146</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v>0.9646940640312499</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-1.753303271720474</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.4648123949783239</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>4.884735996472854</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7.909724958827613</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>11.55823001570356</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>-2.172884883241936</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>4.796088559874963</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>4.884735996472854</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="V7" t="n">
+        <v>1.684759006958479</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.2291297611961709</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>-4.285593174341487</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0.7986221600915518</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>6.804854876393073</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>1.024297487969096</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>-2.401490187005138</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>-4.285593174341487</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
+        <v>-3.081016740045951</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.249421222232229</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>-2.301101389034055</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6.501778915669594</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>7.053185487916611</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.4833390732913241</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>-2.777317844815689</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
+        <v>2.249421222232229</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7950323606163113</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>-4.840829480765454</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5.734377426049912</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>3.401626177950668</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>1.768255253464584</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>-0.7276705127456383</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v>0.7950323606163113</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-2.052087008093958</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>11.81191785998326</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8.798855008058554</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>6.09530997802075</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>6.935057324692101</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>11.81191785998326</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="V11" t="n">
+        <v>-8.443462404272072</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
